--- a/data/FedEx_locations.xlsx
+++ b/data/FedEx_locations.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FedExOperate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6E6FA-FAAF-4042-9D04-491DCDD2C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F0370B-F32F-4624-97B7-ADF034082E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2955" windowWidth="18780" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15330" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>Location</t>
   </si>
@@ -490,6 +498,24 @@
   </si>
   <si>
     <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>LKJ</t>
+  </si>
+  <si>
+    <t>LKJ Lodz HUB</t>
+  </si>
+  <si>
+    <t>LGE</t>
+  </si>
+  <si>
+    <t>ROC2</t>
+  </si>
+  <si>
+    <t>ROC2 Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>LGE Milmort</t>
   </si>
 </sst>
 </file>
@@ -554,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -564,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -874,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1344,10 @@
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>53.297817199999997</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>-6.3680256999999996</v>
       </c>
     </row>
@@ -1338,10 +1361,10 @@
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>54.496741</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>11.2188009</v>
       </c>
     </row>
@@ -1355,10 +1378,10 @@
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2">
         <v>51.2209723</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="2">
         <v>6.7058840999999996</v>
       </c>
     </row>
@@ -1372,10 +1395,10 @@
       <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>50.639117300000002</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>5.4553710999999998</v>
       </c>
     </row>
@@ -1389,10 +1412,10 @@
       <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>50.904743199999999</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>4.4491896999999998</v>
       </c>
     </row>
@@ -1406,10 +1429,10 @@
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
         <v>50.872839599999999</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>7.1295552999999998</v>
       </c>
     </row>
@@ -1420,10 +1443,10 @@
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>55.470231499999997</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>9.4716579000000003</v>
       </c>
     </row>
@@ -1437,10 +1460,10 @@
       <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>48.129132200000001</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>16.545866700000001</v>
       </c>
     </row>
@@ -1454,10 +1477,10 @@
       <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>52.009678800000003</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="2">
         <v>8.6213000999999991</v>
       </c>
     </row>
@@ -1471,10 +1494,10 @@
       <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>51.495660999999998</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>6.5906022000000002</v>
       </c>
     </row>
@@ -1488,10 +1511,10 @@
       <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>51.173321000000001</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>2.9998852</v>
       </c>
     </row>
@@ -1505,10 +1528,10 @@
       <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>50.851726999999997</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>6.0024300000000004</v>
       </c>
     </row>
@@ -1522,10 +1545,10 @@
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>50.950624900000001</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>5.7925858000000003</v>
       </c>
     </row>
@@ -1536,10 +1559,10 @@
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>51.912119599999997</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>5.8692491999999996</v>
       </c>
     </row>
@@ -1550,10 +1573,10 @@
       <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>49.629408699999999</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>8.2319922000000005</v>
       </c>
     </row>
@@ -1564,10 +1587,10 @@
       <c r="B41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>50.018386800000002</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>8.8066806</v>
       </c>
     </row>
@@ -1774,10 +1797,10 @@
       <c r="B56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>52.124924999999998</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>7.6953860000000001</v>
       </c>
     </row>
@@ -1796,35 +1819,73 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
       <c r="B58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="4">
+        <v>51.757519000000002</v>
+      </c>
+      <c r="F58" s="4">
+        <v>19.570689000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59">
+        <v>50.696697999999998</v>
+      </c>
+      <c r="F59">
+        <v>5.5893579999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E61" s="5">
         <v>45.832622299999997</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F61" s="5">
         <v>6.8651749000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E62" s="5">
         <v>47.000659400000004</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F62" s="5">
         <v>11.503595799999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E63" s="5">
         <v>45.150615899999998</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F63" s="5">
         <v>6.6836205</v>
       </c>
     </row>
